--- a/实验三/冯少浦_甘特图.xlsx
+++ b/实验三/冯少浦_甘特图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsp\Desktop\软件工程\player\software-engineering-design\实验三\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CE43AA-62F7-485E-BD79-809E36BDE8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38783FAE-E47B-4275-ACE8-C9F34B4966BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,50 +353,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -734,7 +734,7 @@
   <dimension ref="A1:AD93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="Y30" sqref="Y30:Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -745,102 +745,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -1022,7 +1022,7 @@
       <c r="AD7" s="4"/>
     </row>
     <row r="8" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1058,13 +1058,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="32"/>
+      <c r="C9" s="23"/>
       <c r="D9"/>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="AD9" s="4"/>
     </row>
     <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="4"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1124,13 +1124,13 @@
       <c r="AD10" s="4"/>
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D11"/>
@@ -1162,7 +1162,7 @@
       <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12"/>
@@ -1194,7 +1194,7 @@
       <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B13"/>
@@ -1228,36 +1228,36 @@
       <c r="AD13" s="17"/>
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
     </row>
     <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
@@ -1294,7 +1294,7 @@
       <c r="AD15" s="4"/>
     </row>
     <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1360,7 +1360,7 @@
       <c r="AD17" s="4"/>
     </row>
     <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1426,7 +1426,7 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1507,9 +1507,9 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
@@ -1558,7 +1558,7 @@
       <c r="AD23" s="4"/>
     </row>
     <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1590,7 +1590,7 @@
       <c r="AD24" s="4"/>
     </row>
     <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4"/>
@@ -1624,7 +1624,7 @@
       <c r="AD25" s="4"/>
     </row>
     <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
+      <c r="A26" s="31"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1642,12 +1642,12 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
@@ -1656,7 +1656,7 @@
       <c r="AD26"/>
     </row>
     <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B27"/>
@@ -1690,7 +1690,7 @@
       <c r="AD27"/>
     </row>
     <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
+      <c r="A28" s="31"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1712,9 +1712,9 @@
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
       <c r="Z28"/>
       <c r="AA28"/>
       <c r="AB28"/>
@@ -1722,7 +1722,7 @@
       <c r="AD28"/>
     </row>
     <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B29"/>
@@ -1756,7 +1756,7 @@
       <c r="AD29"/>
     </row>
     <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
+      <c r="A30" s="31"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1780,8 +1780,8 @@
       <c r="V30"/>
       <c r="W30"/>
       <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
       <c r="AA30"/>
       <c r="AB30"/>
       <c r="AC30"/>
@@ -1789,38 +1789,38 @@
     </row>
     <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
     </row>
     <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="31"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1852,7 +1852,7 @@
       <c r="AD32"/>
     </row>
     <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="31"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1884,7 +1884,7 @@
       <c r="AD33"/>
     </row>
     <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1916,7 +1916,7 @@
       <c r="AD34" s="13"/>
     </row>
     <row r="35" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2076,27 +2076,27 @@
       <c r="AD39" s="10"/>
     </row>
     <row r="40" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -2172,7 +2172,7 @@
       <c r="AD42" s="9"/>
     </row>
     <row r="43" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="18"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -2204,7 +2204,7 @@
       <c r="AD43" s="9"/>
     </row>
     <row r="44" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="18"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -2236,7 +2236,7 @@
       <c r="AD44" s="9"/>
     </row>
     <row r="45" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -2268,7 +2268,7 @@
       <c r="AD45" s="9"/>
     </row>
     <row r="46" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="18"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -2300,7 +2300,7 @@
       <c r="AD46" s="9"/>
     </row>
     <row r="47" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="18"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -2332,7 +2332,7 @@
       <c r="AD47" s="9"/>
     </row>
     <row r="48" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="18"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -2364,7 +2364,7 @@
       <c r="AD48" s="9"/>
     </row>
     <row r="49" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="18"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -2396,7 +2396,7 @@
       <c r="AD49" s="9"/>
     </row>
     <row r="50" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="18"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -2428,7 +2428,7 @@
       <c r="AD50" s="9"/>
     </row>
     <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="18"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -2457,7 +2457,7 @@
       <c r="AA51"/>
     </row>
     <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="18"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -2547,7 +2547,7 @@
       <c r="AD54" s="9"/>
     </row>
     <row r="55" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="18"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -2579,7 +2579,7 @@
       <c r="AD55" s="9"/>
     </row>
     <row r="56" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="18"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -2608,7 +2608,7 @@
       <c r="AA56"/>
     </row>
     <row r="57" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="18"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -2635,7 +2635,7 @@
       <c r="Y57"/>
     </row>
     <row r="58" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="18"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -2662,7 +2662,7 @@
       <c r="Y58"/>
     </row>
     <row r="59" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="18"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -2689,7 +2689,7 @@
       <c r="Y59"/>
     </row>
     <row r="60" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="18"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -2716,7 +2716,7 @@
       <c r="Y60"/>
     </row>
     <row r="61" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="18"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -2743,7 +2743,7 @@
       <c r="Y61"/>
     </row>
     <row r="62" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="18"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -2770,7 +2770,7 @@
       <c r="Y62"/>
     </row>
     <row r="63" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="18"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -2797,7 +2797,7 @@
       <c r="Y63"/>
     </row>
     <row r="64" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="18"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -2824,7 +2824,7 @@
       <c r="Y64"/>
     </row>
     <row r="65" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="18"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -2851,7 +2851,7 @@
       <c r="Y65"/>
     </row>
     <row r="66" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="18"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -3011,7 +3011,7 @@
       <c r="B72" s="18"/>
     </row>
     <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="30"/>
+      <c r="A73" s="29"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -3035,7 +3035,7 @@
       <c r="V73"/>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A74" s="30"/>
+      <c r="A74" s="29"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -3059,7 +3059,7 @@
       <c r="V74"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A75" s="30"/>
+      <c r="A75" s="29"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -3083,7 +3083,7 @@
       <c r="V75"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A76" s="30"/>
+      <c r="A76" s="29"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -3107,7 +3107,7 @@
       <c r="V76"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A77" s="30"/>
+      <c r="A77" s="29"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -3131,7 +3131,7 @@
       <c r="V77"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
+      <c r="A78" s="29"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -3155,7 +3155,7 @@
       <c r="V78"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A79" s="30"/>
+      <c r="A79" s="29"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -3179,7 +3179,7 @@
       <c r="V79"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A80" s="30"/>
+      <c r="A80" s="29"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -3203,27 +3203,27 @@
       <c r="V80"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="30"/>
-      <c r="S81" s="30"/>
-      <c r="T81" s="30"/>
-      <c r="U81" s="30"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="29"/>
+      <c r="U81" s="29"/>
       <c r="V81"/>
       <c r="W81"/>
       <c r="X81"/>
@@ -3235,7 +3235,7 @@
       <c r="AD81"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
+      <c r="A82" s="29"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -3267,7 +3267,7 @@
       <c r="AD82"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A83" s="30"/>
+      <c r="A83" s="29"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -3299,7 +3299,7 @@
       <c r="AD83"/>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A84" s="30"/>
+      <c r="A84" s="29"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -3331,7 +3331,7 @@
       <c r="AD84"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A85" s="30"/>
+      <c r="A85" s="29"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -3363,7 +3363,7 @@
       <c r="AD85"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A86" s="30"/>
+      <c r="A86" s="29"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -3395,7 +3395,7 @@
       <c r="AD86"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A87" s="30"/>
+      <c r="A87" s="29"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -3427,7 +3427,7 @@
       <c r="AD87"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A88" s="30"/>
+      <c r="A88" s="29"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -3459,7 +3459,7 @@
       <c r="AD88"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A89" s="30"/>
+      <c r="A89" s="29"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -3491,7 +3491,7 @@
       <c r="AD89"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
+      <c r="A90" s="29"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -3523,7 +3523,7 @@
       <c r="AD90"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A91" s="30"/>
+      <c r="A91" s="29"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -3590,6 +3590,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:AD3"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B31:AD31"/>
     <mergeCell ref="A40:U40"/>
@@ -3606,28 +3628,6 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A1:AD3"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
